--- a/aiurt-module-system/src/main/resources/templates/floodInformation.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/floodInformation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>防汛信息管理导入模板</t>
   </si>
@@ -35,7 +35,8 @@
 9.周边是否存在工地：必填且只能选择：”是“、”否“；
 10.防汛物资配备所在位置：必填，手动输入内容；
 11.防汛出入口：必填，手动输入；
-12.防汛等级：必填，手动输入。</t>
+12.防汛等级：必填，手动输入；
+13工号：必填字段且系统中已存在。</t>
   </si>
   <si>
     <t>站点名称</t>
@@ -72,6 +73,9 @@
   </si>
   <si>
     <t>防汛等级</t>
+  </si>
+  <si>
+    <t>工号</t>
   </si>
 </sst>
 </file>
@@ -84,38 +88,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="12"/>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -142,10 +134,10 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,175 +557,165 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1053,156 +1035,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L7"/>
+  <sheetPr/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="12.55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" ht="24" customHeight="1" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="256" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="24" customHeight="1" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:12">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" ht="145" customHeight="1" spans="1:12">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:12">
-      <c r="A7" s="5" t="s">
+    <row r="3" ht="21" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L6"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/aiurt-module-system/src/main/resources/templates/floodInformation.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/floodInformation.xlsx
@@ -34,7 +34,7 @@
 8.周边是否存在排水不畅：必填且只能选择：”是“、”否“；
 9.周边是否存在工地：必填且只能选择：”是“、”否“；
 10.防汛物资配备所在位置：必填，手动输入内容；
-11.防汛出入口：必填，手动输入；
+11.防汛出入口：必填，手动输入，多个出入口用中因为逗号区分都可；例如：A出口,B出口；
 12.防汛等级：必填，手动输入；
 13工号：必填字段且系统中已存在。</t>
   </si>
@@ -1054,7 +1054,7 @@
     <col min="13" max="13" width="12.55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:12">
+    <row r="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,6 +1069,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" ht="256" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
@@ -1130,7 +1131,7 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
